--- a/性能测试/服务端_测试框架/服务端_性能_分析.xlsx
+++ b/性能测试/服务端_测试框架/服务端_性能_分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8850" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>进程数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,18 +86,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asio_windows版</t>
+    <t>备注:未能测试出服务端的最高性能</t>
+  </si>
+  <si>
+    <t>asio_win_收发多线程_无锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asio_linux_收发多线程_无锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asio_linux_收发单线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注:未能测试出服务端的最高性能</t>
-  </si>
-  <si>
-    <t>备注:未能测试出服务端的最高性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asio_linux版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,11 +490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="652820512"/>
-        <c:axId val="652821072"/>
+        <c:axId val="648295712"/>
+        <c:axId val="648296272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="652820512"/>
+        <c:axId val="648295712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,12 +551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652821072"/>
+        <c:crossAx val="648296272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="652821072"/>
+        <c:axId val="648296272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652820512"/>
+        <c:crossAx val="648295712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -706,7 +710,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9395432989732542E-2"/>
+          <c:y val="4.8245614035087717E-2"/>
+          <c:w val="0.51526196010660952"/>
+          <c:h val="0.84562163282221303"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -714,7 +728,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>asio_windows_版本</c:v>
+            <c:strRef>
+              <c:f>总结!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>asio_win_收发多线程_无锁</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -903,7 +925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>asio_linux版</c:v>
+                  <c:v>asio_linux_收发多线程_无锁</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -994,6 +1016,206 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>总结!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>asio_linux_收发单线程</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>总结!$B$71:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>总结!$C$71:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1909999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>总结!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>总结!$B$27:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>总结!$C$27:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3260000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1002,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="702130528"/>
-        <c:axId val="702131088"/>
+        <c:axId val="648300192"/>
+        <c:axId val="648300752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="702130528"/>
+        <c:axId val="648300192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,12 +1285,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702131088"/>
+        <c:crossAx val="648300752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702131088"/>
+        <c:axId val="648300752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702130528"/>
+        <c:crossAx val="648300192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1139,7 +1361,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5907882534775889"/>
+          <c:y val="0.38897948611686695"/>
+          <c:w val="0.39684698608964453"/>
+          <c:h val="0.24397085232766957"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1466,11 +1697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="652823872"/>
-        <c:axId val="652824432"/>
+        <c:axId val="648303552"/>
+        <c:axId val="648304112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="652823872"/>
+        <c:axId val="648303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1799,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652824432"/>
+        <c:crossAx val="648304112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1576,7 +1807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652824432"/>
+        <c:axId val="648304112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652823872"/>
+        <c:crossAx val="648303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,11 +2148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="652826672"/>
-        <c:axId val="652827232"/>
+        <c:axId val="647912128"/>
+        <c:axId val="647912688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="652826672"/>
+        <c:axId val="647912128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +2209,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652827232"/>
+        <c:crossAx val="647912688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="652827232"/>
+        <c:axId val="647912688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652826672"/>
+        <c:crossAx val="647912128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,11 +2599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="652610992"/>
-        <c:axId val="652606512"/>
+        <c:axId val="144301248"/>
+        <c:axId val="650302528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="652610992"/>
+        <c:axId val="144301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2706,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652606512"/>
+        <c:crossAx val="650302528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652606512"/>
+        <c:axId val="650302528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2820,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652610992"/>
+        <c:crossAx val="144301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2821,11 +3052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655676288"/>
-        <c:axId val="655676848"/>
+        <c:axId val="650304768"/>
+        <c:axId val="650305328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655676288"/>
+        <c:axId val="650304768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,12 +3113,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655676848"/>
+        <c:crossAx val="650305328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655676848"/>
+        <c:axId val="650305328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +3175,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655676288"/>
+        <c:crossAx val="650304768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3239,11 +3470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="655679088"/>
-        <c:axId val="655679648"/>
+        <c:axId val="650307568"/>
+        <c:axId val="650308128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="655679088"/>
+        <c:axId val="650307568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +3574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655679648"/>
+        <c:crossAx val="650308128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3351,7 +3582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="655679648"/>
+        <c:axId val="650308128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,7 +3672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655679088"/>
+        <c:crossAx val="650307568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3632,11 +3863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655681888"/>
-        <c:axId val="655682448"/>
+        <c:axId val="650310368"/>
+        <c:axId val="650310928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655681888"/>
+        <c:axId val="650310368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,12 +4004,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655682448"/>
+        <c:crossAx val="650310928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655682448"/>
+        <c:axId val="650310928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +4128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655681888"/>
+        <c:crossAx val="650310368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8593,10 +8824,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9102,10 +9333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9402,12 +9633,12 @@
         <v>3.3260000000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -9608,12 +9839,12 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -9687,7 +9918,7 @@
         <v>6.4740000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>50</v>
       </c>
@@ -9699,7 +9930,7 @@
         <v>6.5049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>80</v>
       </c>
@@ -9709,6 +9940,109 @@
       </c>
       <c r="C66">
         <v>7.0090000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <f>A71*2500</f>
+        <v>12500</v>
+      </c>
+      <c r="C71">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B77" si="6">A72*2500</f>
+        <v>37500</v>
+      </c>
+      <c r="C72">
+        <v>3.8660000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="C73">
+        <v>3.903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>75000</v>
+      </c>
+      <c r="C74">
+        <v>3.831</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="C75">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>50</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>125000</v>
+      </c>
+      <c r="C76">
+        <v>3.948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="C77">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/性能测试/服务端_测试框架/服务端_性能_分析.xlsx
+++ b/性能测试/服务端_测试框架/服务端_性能_分析.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="11310" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="4" r:id="rId1"/>
-    <sheet name="mongodb" sheetId="1" r:id="rId2"/>
-    <sheet name="mysql" sheetId="2" r:id="rId3"/>
-    <sheet name="redis" sheetId="3" r:id="rId4"/>
+    <sheet name="总结2" sheetId="5" r:id="rId2"/>
+    <sheet name="mongodb" sheetId="1" r:id="rId3"/>
+    <sheet name="mysql" sheetId="2" r:id="rId4"/>
+    <sheet name="redis" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>进程数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,11 +98,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F-Game_linux版服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>asio_linux_收发单线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注:未能测试出服务端的最高性能</t>
+    <t>额外测试:开2个server , 耗时为 10.242 这个结果我无法理解(服务端和客户端所在的 机器的cpu 都没有跑满)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外测试:开2个server , 耗时为 11.176 这个结果我无法理解(服务端和客户端所在的 机器的cpu 都没有跑满)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结:客户端所在的 windows 机器的 io 读写有瓶颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:未能测试出服务端的最高性能(后续-&gt;总结2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外测试:开2个server , 耗时为 7.356 (客户端分别在2个机器上运行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,11 +511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648295712"/>
-        <c:axId val="648296272"/>
+        <c:axId val="249684112"/>
+        <c:axId val="249492592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648295712"/>
+        <c:axId val="249684112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,12 +572,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648296272"/>
+        <c:crossAx val="249492592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648296272"/>
+        <c:axId val="249492592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648295712"/>
+        <c:crossAx val="249684112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1224,11 +1245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648300192"/>
-        <c:axId val="648300752"/>
+        <c:axId val="250899232"/>
+        <c:axId val="250899792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648300192"/>
+        <c:axId val="250899232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,12 +1306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648300752"/>
+        <c:crossAx val="250899792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648300752"/>
+        <c:axId val="250899792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1368,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648300192"/>
+        <c:crossAx val="250899232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,11 +1718,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="648303552"/>
-        <c:axId val="648304112"/>
+        <c:axId val="250902592"/>
+        <c:axId val="250903152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="648303552"/>
+        <c:axId val="250902592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1820,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648304112"/>
+        <c:crossAx val="250903152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +1828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="648304112"/>
+        <c:axId val="250903152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1927,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648303552"/>
+        <c:crossAx val="250902592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,11 +2169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="647912128"/>
-        <c:axId val="647912688"/>
+        <c:axId val="250905392"/>
+        <c:axId val="250905952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="647912128"/>
+        <c:axId val="250905392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,12 +2230,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647912688"/>
+        <c:crossAx val="250905952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="647912688"/>
+        <c:axId val="250905952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647912128"/>
+        <c:crossAx val="250905392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2599,11 +2620,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="144301248"/>
-        <c:axId val="650302528"/>
+        <c:axId val="250908192"/>
+        <c:axId val="250908752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144301248"/>
+        <c:axId val="250908192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650302528"/>
+        <c:crossAx val="250908752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +2735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="650302528"/>
+        <c:axId val="250908752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2841,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144301248"/>
+        <c:crossAx val="250908192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3052,11 +3073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="650304768"/>
-        <c:axId val="650305328"/>
+        <c:axId val="250910992"/>
+        <c:axId val="251869888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="650304768"/>
+        <c:axId val="250910992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,12 +3134,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650305328"/>
+        <c:crossAx val="251869888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650305328"/>
+        <c:axId val="251869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3196,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650304768"/>
+        <c:crossAx val="250910992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3470,11 +3491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="41"/>
-        <c:axId val="650307568"/>
-        <c:axId val="650308128"/>
+        <c:axId val="251872128"/>
+        <c:axId val="251872688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="650307568"/>
+        <c:axId val="251872128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650308128"/>
+        <c:crossAx val="251872688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3582,7 +3603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="650308128"/>
+        <c:axId val="251872688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3693,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650307568"/>
+        <c:crossAx val="251872128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3863,11 +3884,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="650310368"/>
-        <c:axId val="650310928"/>
+        <c:axId val="251874928"/>
+        <c:axId val="251875488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="650310368"/>
+        <c:axId val="251874928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,12 +4025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650310928"/>
+        <c:crossAx val="251875488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650310928"/>
+        <c:axId val="251875488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,7 +4149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650310368"/>
+        <c:crossAx val="251874928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9335,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9839,7 +9860,7 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -9944,7 +9965,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -10042,7 +10063,7 @@
         <v>4.1909999999999998</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -10054,6 +10075,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>A6*2500*80</f>
+        <v>200000</v>
+      </c>
+      <c r="C6">
+        <v>6.1920000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B10" si="0">A7*2500*80</f>
+        <v>400000</v>
+      </c>
+      <c r="C7">
+        <v>6.6239999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="C8">
+        <v>7.0259999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="C9">
+        <v>8.4529999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C10">
+        <v>10.896000000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>A16*2500*80</f>
+        <v>200000</v>
+      </c>
+      <c r="C16">
+        <v>5.4320000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B20" si="1">A17*2500*80</f>
+        <v>400000</v>
+      </c>
+      <c r="C17">
+        <v>5.907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="C18">
+        <v>6.7930000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="C19">
+        <v>8.6560000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>11.262</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -10291,7 +10496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -10558,7 +10763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
